--- a/02_Formulas_Function/2_Functions_Intro.xlsx
+++ b/02_Formulas_Function/2_Functions_Intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\data analytics\02_Formulas_Function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB284CDC-A672-4C55-A578-10D6D861604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60252ADF-4022-40B5-B817-DE02BE896C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,7 +630,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1738,7 +1737,7 @@
         <f>COUNTIF($D$3:$D$12,"&gt;="&amp;$S$4)</f>
         <v>9</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1749,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
   <dimension ref="B1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1759,15 +1758,15 @@
     <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.25" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.25" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
@@ -2488,21 +2487,21 @@
         <f>COUNTIF($D$3:$D$12, "&gt;=90000")</f>
         <v>9</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <f>COUNTIF($C$3:$C$12, "&lt;=" &amp; S3)</f>
         <v>6</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <f>COUNTIF($D$3:$D$12, "&gt;=" &amp; S4)</f>
         <v>9</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2526,37 +2525,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="38" t="e">
+      <c r="B3" s="37" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="38" t="e">
+      <c r="B4" s="37" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2565,10 +2564,10 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2577,46 +2576,46 @@
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="38" t="e">
+      <c r="B7" s="37" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="38" t="e">
+      <c r="B8" s="37" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="38" t="e">
+      <c r="B9" s="37" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>39</v>
       </c>
     </row>
